--- a/xls/TABLE_英雄经验表.xlsx
+++ b/xls/TABLE_英雄经验表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>英雄等级</t>
   </si>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>i</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1032,15 +1040,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1057,13 +1063,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
